--- a/result.xlsx
+++ b/result.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Poly\session8\algo\lab1\algo_tp1_h19\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E2F90C7-5EB0-42A6-A04F-7C18A854C9F8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF67855C-05DE-4EB9-AEBA-160DDBC5A9C7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="5640" activeTab="4" xr2:uid="{E67B8FEB-57DD-4A9A-B231-4B50BD2449DC}"/>
   </bookViews>
@@ -82,7 +82,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1107" uniqueCount="373">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1109" uniqueCount="375">
   <si>
     <t>nom fichier</t>
   </si>
@@ -1201,6 +1201,12 @@
   </si>
   <si>
     <t>Column3</t>
+  </si>
+  <si>
+    <t>Counting</t>
+  </si>
+  <si>
+    <t>nlogn</t>
   </si>
 </sst>
 </file>
@@ -1380,6 +1386,33 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
+              <c:f>Sheet1!$J$2:$J$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>50000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>500000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
               <c:f>Sheet1!$L$2:$L$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
@@ -1401,33 +1434,6 @@
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>69.099999999999994</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Sheet1!$J$2:$J$7</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>1000</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>5000</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>10000</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>50000</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>100000</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>500000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1453,6 +1459,7 @@
       <c:valAx>
         <c:axId val="902265544"/>
         <c:scaling>
+          <c:logBase val="10"/>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
@@ -1515,6 +1522,7 @@
       <c:valAx>
         <c:axId val="902264888"/>
         <c:scaling>
+          <c:logBase val="10"/>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
@@ -1704,7 +1712,49 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="poly"/>
+            <c:order val="2"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
           <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$J$2:$J$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>50000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>500000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
             <c:numRef>
               <c:f>Sheet1!$M$2:$M$7</c:f>
               <c:numCache>
@@ -1730,33 +1780,6 @@
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Sheet1!$J$2:$J$7</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>1000</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>5000</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>10000</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>50000</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>100000</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>500000</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
           <c:extLst>
@@ -1779,6 +1802,7 @@
       <c:valAx>
         <c:axId val="994944544"/>
         <c:scaling>
+          <c:logBase val="10"/>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
@@ -1841,6 +1865,7 @@
       <c:valAx>
         <c:axId val="994945528"/>
         <c:scaling>
+          <c:logBase val="10"/>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
@@ -2030,7 +2055,49 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="poly"/>
+            <c:order val="3"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
           <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$J$2:$J$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>50000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>500000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
             <c:numRef>
               <c:f>Sheet1!$N$2:$N$7</c:f>
               <c:numCache>
@@ -2056,33 +2123,6 @@
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Sheet1!$J$2:$J$7</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>1000</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>5000</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>10000</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>50000</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>100000</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>500000</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
           <c:extLst>
@@ -2105,6 +2145,7 @@
       <c:valAx>
         <c:axId val="900169808"/>
         <c:scaling>
+          <c:logBase val="10"/>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
@@ -2167,6 +2208,7 @@
       <c:valAx>
         <c:axId val="900170136"/>
         <c:scaling>
+          <c:logBase val="10"/>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
@@ -2356,7 +2398,49 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="poly"/>
+            <c:order val="2"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
           <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$J$2:$J$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>50000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>500000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
             <c:numRef>
               <c:f>Sheet1!$O$2:$O$7</c:f>
               <c:numCache>
@@ -2382,33 +2466,6 @@
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Sheet1!$J$2:$J$7</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>1000</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>5000</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>10000</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>50000</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>100000</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>500000</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
           <c:extLst>
@@ -2431,6 +2488,7 @@
       <c:valAx>
         <c:axId val="900182808"/>
         <c:scaling>
+          <c:logBase val="10"/>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
@@ -2493,6 +2551,7 @@
       <c:valAx>
         <c:axId val="899038536"/>
         <c:scaling>
+          <c:logBase val="10"/>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
@@ -3197,6 +3256,1042 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Test</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> des constantes quick</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="fr-FR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>nlognvsy</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$I$57:$I$62</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>3000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>18494.850021680093</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>40000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>234948.50021680092</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>500000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2849485.0021680095</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$M$2:$M$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>2.8333333333333335</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.6129032258064515</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>17.3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>34.06666666666667</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>190.46666666666667</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-E14F-437C-B36E-240575FB006F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="828185536"/>
+        <c:axId val="828192424"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="828185536"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="fr-FR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="828192424"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="828192424"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="fr-FR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="828185536"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="fr-FR"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="fr-FR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1800" b="0" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>Test des constantes quickSeuil</a:t>
+            </a:r>
+            <a:endParaRPr lang="fr-CA">
+              <a:effectLst/>
+            </a:endParaRPr>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="fr-FR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$I$57:$I$62</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>3000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>18494.850021680093</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>40000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>234948.50021680092</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>500000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2849485.0021680095</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$N$2:$N$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>2.5333333333333332</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.903225806451613</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>18.033333333333335</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>35.233333333333334</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>189.4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-6680-4967-95EE-824873522F56}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="886859376"/>
+        <c:axId val="886859048"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="886859376"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="fr-FR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="886859048"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="886859048"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="fr-FR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="886859376"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="fr-FR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="fr-FR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Test des constantes QuickRandomSeuill</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$I$57:$I$62</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>3000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>18494.850021680093</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>40000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>234948.50021680092</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>500000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2849485.0021680095</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$O$2:$O$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>2.4666666666666668</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.967741935483871</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.4333333333333336</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>18.600000000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>36.4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>196.56666666666666</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-8043-41FC-8DA8-1BA7E55201F8}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="827788328"/>
+        <c:axId val="827785704"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="827788328"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="fr-FR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="827785704"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="827785704"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="fr-FR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="827788328"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="fr-FR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -3397,6 +4492,126 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
@@ -5462,6 +6677,1554 @@
 </file>
 
 <file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style8.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -6125,16 +8888,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>342900</xdr:colOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>129540</xdr:colOff>
       <xdr:row>37</xdr:row>
-      <xdr:rowOff>45720</xdr:rowOff>
+      <xdr:rowOff>30480</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>213360</xdr:colOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>52</xdr:row>
-      <xdr:rowOff>45720</xdr:rowOff>
+      <xdr:rowOff>30480</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -6154,6 +8917,114 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>60960</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>1127760</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="11" name="Chart 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B211C093-8D36-42E2-8703-53E38B8FEB35}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>53340</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>1219200</xdr:colOff>
+      <xdr:row>67</xdr:row>
+      <xdr:rowOff>53340</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="12" name="Chart 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD2D04DD-12B6-4B00-B31B-E41D7C1C241D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId7"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>121920</xdr:colOff>
+      <xdr:row>67</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>1188720</xdr:colOff>
+      <xdr:row>82</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="13" name="Chart 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{16E1BA2D-1842-4A4F-8CDE-3A8F6AE29330}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId8"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -12459,8 +15330,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01E4C34C-C585-40ED-85BC-0862F2E3BA76}">
   <dimension ref="A1:U181"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B28" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="N50" sqref="N50"/>
+    <sheetView tabSelected="1" topLeftCell="D5" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H69" sqref="H69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -12470,7 +15341,7 @@
     <col min="8" max="8" width="15.21875" customWidth="1"/>
     <col min="15" max="15" width="15.5546875" customWidth="1"/>
     <col min="17" max="17" width="27.6640625" customWidth="1"/>
-    <col min="18" max="18" width="3.77734375" customWidth="1"/>
+    <col min="18" max="18" width="16.5546875" customWidth="1"/>
     <col min="19" max="19" width="9.44140625" customWidth="1"/>
     <col min="20" max="21" width="10.77734375" bestFit="1" customWidth="1"/>
   </cols>
@@ -14266,6 +17137,12 @@
         <v>24</v>
       </c>
       <c r="D56" s="1"/>
+      <c r="H56" t="s">
+        <v>374</v>
+      </c>
+      <c r="I56" t="s">
+        <v>373</v>
+      </c>
       <c r="Q56" s="2" t="s">
         <v>246</v>
       </c>
@@ -14294,6 +17171,10 @@
         <v>25</v>
       </c>
       <c r="D57" s="1"/>
+      <c r="I57">
+        <f>J2*LOG(J2)</f>
+        <v>3000</v>
+      </c>
       <c r="Q57" s="2" t="s">
         <v>247</v>
       </c>
@@ -14322,6 +17203,10 @@
         <v>26</v>
       </c>
       <c r="D58" s="1"/>
+      <c r="I58">
+        <f t="shared" ref="I58:I62" si="2">J3*LOG(J3)</f>
+        <v>18494.850021680093</v>
+      </c>
       <c r="Q58" s="2" t="s">
         <v>248</v>
       </c>
@@ -14350,6 +17235,10 @@
         <v>27</v>
       </c>
       <c r="D59" s="1"/>
+      <c r="I59">
+        <f t="shared" si="2"/>
+        <v>40000</v>
+      </c>
       <c r="Q59" s="2" t="s">
         <v>249</v>
       </c>
@@ -14378,6 +17267,10 @@
         <v>28</v>
       </c>
       <c r="D60" s="1"/>
+      <c r="I60">
+        <f t="shared" si="2"/>
+        <v>234948.50021680092</v>
+      </c>
       <c r="Q60" s="2" t="s">
         <v>250</v>
       </c>
@@ -14406,6 +17299,10 @@
         <v>29</v>
       </c>
       <c r="D61" s="1"/>
+      <c r="I61">
+        <f t="shared" si="2"/>
+        <v>500000</v>
+      </c>
       <c r="Q61" s="2" t="s">
         <v>251</v>
       </c>
@@ -14436,6 +17333,10 @@
       <c r="E62" s="3">
         <v>5</v>
       </c>
+      <c r="I62">
+        <f t="shared" si="2"/>
+        <v>2849485.0021680095</v>
+      </c>
       <c r="Q62" s="2" t="s">
         <v>192</v>
       </c>
@@ -14491,7 +17392,7 @@
         <v>10000</v>
       </c>
       <c r="C64">
-        <f t="shared" ref="C64:C91" si="2">C63+1</f>
+        <f t="shared" ref="C64:C91" si="3">C63+1</f>
         <v>2</v>
       </c>
       <c r="D64" s="1"/>
@@ -14522,7 +17423,7 @@
         <v>10000</v>
       </c>
       <c r="C65">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>3</v>
       </c>
       <c r="D65" s="1"/>
@@ -14553,7 +17454,7 @@
         <v>10000</v>
       </c>
       <c r="C66">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
       <c r="D66" s="1"/>
@@ -14584,7 +17485,7 @@
         <v>10000</v>
       </c>
       <c r="C67">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>5</v>
       </c>
       <c r="D67" s="1"/>
@@ -14615,7 +17516,7 @@
         <v>10000</v>
       </c>
       <c r="C68">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>6</v>
       </c>
       <c r="D68" s="1"/>
@@ -14646,7 +17547,7 @@
         <v>10000</v>
       </c>
       <c r="C69">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>7</v>
       </c>
       <c r="D69" s="1"/>
@@ -14677,7 +17578,7 @@
         <v>10000</v>
       </c>
       <c r="C70">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>8</v>
       </c>
       <c r="D70" s="1"/>
@@ -14708,7 +17609,7 @@
         <v>10000</v>
       </c>
       <c r="C71">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>9</v>
       </c>
       <c r="D71" s="1"/>
@@ -14739,7 +17640,7 @@
         <v>10000</v>
       </c>
       <c r="C72">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>10</v>
       </c>
       <c r="D72" s="1"/>
@@ -14770,7 +17671,7 @@
         <v>10000</v>
       </c>
       <c r="C73">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>11</v>
       </c>
       <c r="D73" s="1"/>
@@ -14801,7 +17702,7 @@
         <v>10000</v>
       </c>
       <c r="C74">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>12</v>
       </c>
       <c r="D74" s="1"/>
@@ -14832,7 +17733,7 @@
         <v>10000</v>
       </c>
       <c r="C75">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>13</v>
       </c>
       <c r="D75" s="1"/>
@@ -14863,7 +17764,7 @@
         <v>10000</v>
       </c>
       <c r="C76">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>14</v>
       </c>
       <c r="D76" s="1"/>
@@ -14894,7 +17795,7 @@
         <v>10000</v>
       </c>
       <c r="C77">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>15</v>
       </c>
       <c r="D77" s="1"/>
@@ -14925,7 +17826,7 @@
         <v>10000</v>
       </c>
       <c r="C78">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>16</v>
       </c>
       <c r="D78" s="1"/>
@@ -14956,7 +17857,7 @@
         <v>10000</v>
       </c>
       <c r="C79">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>17</v>
       </c>
       <c r="D79" s="1"/>
@@ -14987,7 +17888,7 @@
         <v>10000</v>
       </c>
       <c r="C80">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>18</v>
       </c>
       <c r="D80" s="1"/>
@@ -15018,7 +17919,7 @@
         <v>10000</v>
       </c>
       <c r="C81">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>19</v>
       </c>
       <c r="D81" s="1"/>
@@ -15049,7 +17950,7 @@
         <v>10000</v>
       </c>
       <c r="C82">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>20</v>
       </c>
       <c r="D82" s="1"/>
@@ -15080,7 +17981,7 @@
         <v>10000</v>
       </c>
       <c r="C83">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>21</v>
       </c>
       <c r="D83" s="1"/>
@@ -15111,7 +18012,7 @@
         <v>10000</v>
       </c>
       <c r="C84">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>22</v>
       </c>
       <c r="D84" s="1"/>
@@ -15142,7 +18043,7 @@
         <v>10000</v>
       </c>
       <c r="C85">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>23</v>
       </c>
       <c r="D85" s="1"/>
@@ -15173,7 +18074,7 @@
         <v>10000</v>
       </c>
       <c r="C86">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>24</v>
       </c>
       <c r="D86" s="1"/>
@@ -15204,7 +18105,7 @@
         <v>10000</v>
       </c>
       <c r="C87">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>25</v>
       </c>
       <c r="D87" s="1"/>
@@ -15235,7 +18136,7 @@
         <v>10000</v>
       </c>
       <c r="C88">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>26</v>
       </c>
       <c r="D88" s="1"/>
@@ -15266,7 +18167,7 @@
         <v>10000</v>
       </c>
       <c r="C89">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>27</v>
       </c>
       <c r="D89" s="1"/>
@@ -15297,7 +18198,7 @@
         <v>10000</v>
       </c>
       <c r="C90">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>28</v>
       </c>
       <c r="D90" s="1"/>
@@ -15328,7 +18229,7 @@
         <v>10000</v>
       </c>
       <c r="C91">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>29</v>
       </c>
       <c r="D91" s="1"/>
@@ -15414,7 +18315,7 @@
         <v>50000</v>
       </c>
       <c r="C94">
-        <f t="shared" ref="C94:C121" si="3">C93+1</f>
+        <f t="shared" ref="C94:C121" si="4">C93+1</f>
         <v>2</v>
       </c>
       <c r="D94" s="1"/>
@@ -15442,7 +18343,7 @@
         <v>50000</v>
       </c>
       <c r="C95">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>3</v>
       </c>
       <c r="D95" s="1"/>
@@ -15470,7 +18371,7 @@
         <v>50000</v>
       </c>
       <c r="C96">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>4</v>
       </c>
       <c r="D96" s="1"/>
@@ -15498,7 +18399,7 @@
         <v>50000</v>
       </c>
       <c r="C97">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>5</v>
       </c>
       <c r="D97" s="1"/>
@@ -15526,7 +18427,7 @@
         <v>50000</v>
       </c>
       <c r="C98">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>6</v>
       </c>
       <c r="D98" s="1"/>
@@ -15554,7 +18455,7 @@
         <v>50000</v>
       </c>
       <c r="C99">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>7</v>
       </c>
       <c r="D99" s="1"/>
@@ -15582,7 +18483,7 @@
         <v>50000</v>
       </c>
       <c r="C100">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>8</v>
       </c>
       <c r="D100" s="1"/>
@@ -15610,7 +18511,7 @@
         <v>50000</v>
       </c>
       <c r="C101">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>9</v>
       </c>
       <c r="D101" s="1"/>
@@ -15638,7 +18539,7 @@
         <v>50000</v>
       </c>
       <c r="C102">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>10</v>
       </c>
       <c r="D102" s="1"/>
@@ -15666,7 +18567,7 @@
         <v>50000</v>
       </c>
       <c r="C103">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>11</v>
       </c>
       <c r="D103" s="1"/>
@@ -15694,7 +18595,7 @@
         <v>50000</v>
       </c>
       <c r="C104">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>12</v>
       </c>
       <c r="D104" s="1"/>
@@ -15722,7 +18623,7 @@
         <v>50000</v>
       </c>
       <c r="C105">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>13</v>
       </c>
       <c r="D105" s="1"/>
@@ -15750,7 +18651,7 @@
         <v>50000</v>
       </c>
       <c r="C106">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>14</v>
       </c>
       <c r="D106" s="1"/>
@@ -15778,7 +18679,7 @@
         <v>50000</v>
       </c>
       <c r="C107">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>15</v>
       </c>
       <c r="D107" s="1"/>
@@ -15806,7 +18707,7 @@
         <v>50000</v>
       </c>
       <c r="C108">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>16</v>
       </c>
       <c r="D108" s="1"/>
@@ -15834,7 +18735,7 @@
         <v>50000</v>
       </c>
       <c r="C109">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>17</v>
       </c>
       <c r="D109" s="1"/>
@@ -15862,7 +18763,7 @@
         <v>50000</v>
       </c>
       <c r="C110">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>18</v>
       </c>
       <c r="D110" s="1"/>
@@ -15890,7 +18791,7 @@
         <v>50000</v>
       </c>
       <c r="C111">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>19</v>
       </c>
       <c r="D111" s="1"/>
@@ -15918,7 +18819,7 @@
         <v>50000</v>
       </c>
       <c r="C112">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>20</v>
       </c>
       <c r="D112" s="1"/>
@@ -15946,7 +18847,7 @@
         <v>50000</v>
       </c>
       <c r="C113">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>21</v>
       </c>
       <c r="D113" s="1"/>
@@ -15974,7 +18875,7 @@
         <v>50000</v>
       </c>
       <c r="C114">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>22</v>
       </c>
       <c r="D114" s="1"/>
@@ -16002,7 +18903,7 @@
         <v>50000</v>
       </c>
       <c r="C115">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>23</v>
       </c>
       <c r="D115" s="1"/>
@@ -16030,7 +18931,7 @@
         <v>50000</v>
       </c>
       <c r="C116">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>24</v>
       </c>
       <c r="D116" s="1"/>
@@ -16058,7 +18959,7 @@
         <v>50000</v>
       </c>
       <c r="C117">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>25</v>
       </c>
       <c r="D117" s="1"/>
@@ -16086,7 +18987,7 @@
         <v>50000</v>
       </c>
       <c r="C118">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>26</v>
       </c>
       <c r="D118" s="1"/>
@@ -16114,7 +19015,7 @@
         <v>50000</v>
       </c>
       <c r="C119">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>27</v>
       </c>
       <c r="D119" s="1"/>
@@ -16142,7 +19043,7 @@
         <v>50000</v>
       </c>
       <c r="C120">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>28</v>
       </c>
       <c r="D120" s="1"/>
@@ -16170,7 +19071,7 @@
         <v>50000</v>
       </c>
       <c r="C121">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>29</v>
       </c>
       <c r="D121" s="1"/>
@@ -16253,7 +19154,7 @@
         <v>100000</v>
       </c>
       <c r="C124">
-        <f t="shared" ref="C124:C151" si="4">C123+1</f>
+        <f t="shared" ref="C124:C151" si="5">C123+1</f>
         <v>2</v>
       </c>
       <c r="D124" s="1"/>
@@ -16281,7 +19182,7 @@
         <v>100000</v>
       </c>
       <c r="C125">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>3</v>
       </c>
       <c r="D125" s="1"/>
@@ -16309,7 +19210,7 @@
         <v>100000</v>
       </c>
       <c r="C126">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>4</v>
       </c>
       <c r="D126" s="1"/>
@@ -16337,7 +19238,7 @@
         <v>100000</v>
       </c>
       <c r="C127">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>5</v>
       </c>
       <c r="D127" s="1"/>
@@ -16365,7 +19266,7 @@
         <v>100000</v>
       </c>
       <c r="C128">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>6</v>
       </c>
       <c r="D128" s="1"/>
@@ -16393,7 +19294,7 @@
         <v>100000</v>
       </c>
       <c r="C129">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>7</v>
       </c>
       <c r="D129" s="1"/>
@@ -16421,7 +19322,7 @@
         <v>100000</v>
       </c>
       <c r="C130">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>8</v>
       </c>
       <c r="D130" s="1"/>
@@ -16449,7 +19350,7 @@
         <v>100000</v>
       </c>
       <c r="C131">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>9</v>
       </c>
       <c r="D131" s="1"/>
@@ -16477,7 +19378,7 @@
         <v>100000</v>
       </c>
       <c r="C132">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>10</v>
       </c>
       <c r="D132" s="1"/>
@@ -16505,7 +19406,7 @@
         <v>100000</v>
       </c>
       <c r="C133">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>11</v>
       </c>
       <c r="D133" s="1"/>
@@ -16533,7 +19434,7 @@
         <v>100000</v>
       </c>
       <c r="C134">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>12</v>
       </c>
       <c r="D134" s="1"/>
@@ -16561,7 +19462,7 @@
         <v>100000</v>
       </c>
       <c r="C135">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>13</v>
       </c>
       <c r="D135" s="1"/>
@@ -16589,7 +19490,7 @@
         <v>100000</v>
       </c>
       <c r="C136">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>14</v>
       </c>
       <c r="D136" s="1"/>
@@ -16617,7 +19518,7 @@
         <v>100000</v>
       </c>
       <c r="C137">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>15</v>
       </c>
       <c r="D137" s="1"/>
@@ -16645,7 +19546,7 @@
         <v>100000</v>
       </c>
       <c r="C138">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>16</v>
       </c>
       <c r="D138" s="1"/>
@@ -16673,7 +19574,7 @@
         <v>100000</v>
       </c>
       <c r="C139">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>17</v>
       </c>
       <c r="D139" s="1"/>
@@ -16701,7 +19602,7 @@
         <v>100000</v>
       </c>
       <c r="C140">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>18</v>
       </c>
       <c r="D140" s="1"/>
@@ -16729,7 +19630,7 @@
         <v>100000</v>
       </c>
       <c r="C141">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>19</v>
       </c>
       <c r="D141" s="1"/>
@@ -16757,7 +19658,7 @@
         <v>100000</v>
       </c>
       <c r="C142">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>20</v>
       </c>
       <c r="D142" s="1"/>
@@ -16785,7 +19686,7 @@
         <v>100000</v>
       </c>
       <c r="C143">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>21</v>
       </c>
       <c r="D143" s="1"/>
@@ -16813,7 +19714,7 @@
         <v>100000</v>
       </c>
       <c r="C144">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>22</v>
       </c>
       <c r="D144" s="1"/>
@@ -16841,7 +19742,7 @@
         <v>100000</v>
       </c>
       <c r="C145">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>23</v>
       </c>
       <c r="D145" s="1"/>
@@ -16869,7 +19770,7 @@
         <v>100000</v>
       </c>
       <c r="C146">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>24</v>
       </c>
       <c r="D146" s="1"/>
@@ -16897,7 +19798,7 @@
         <v>100000</v>
       </c>
       <c r="C147">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>25</v>
       </c>
       <c r="D147" s="1"/>
@@ -16925,7 +19826,7 @@
         <v>100000</v>
       </c>
       <c r="C148">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>26</v>
       </c>
       <c r="D148" s="1"/>
@@ -16953,7 +19854,7 @@
         <v>100000</v>
       </c>
       <c r="C149">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>27</v>
       </c>
       <c r="D149" s="1"/>
@@ -16981,7 +19882,7 @@
         <v>100000</v>
       </c>
       <c r="C150">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>28</v>
       </c>
       <c r="D150" s="1"/>
@@ -17009,7 +19910,7 @@
         <v>100000</v>
       </c>
       <c r="C151">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>29</v>
       </c>
       <c r="D151" s="1"/>
@@ -17092,7 +19993,7 @@
         <v>500000</v>
       </c>
       <c r="C154">
-        <f t="shared" ref="C154:C181" si="5">C153+1</f>
+        <f t="shared" ref="C154:C181" si="6">C153+1</f>
         <v>2</v>
       </c>
       <c r="D154" s="1"/>
@@ -17120,7 +20021,7 @@
         <v>500000</v>
       </c>
       <c r="C155">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>3</v>
       </c>
       <c r="D155" s="1"/>
@@ -17148,7 +20049,7 @@
         <v>500000</v>
       </c>
       <c r="C156">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>4</v>
       </c>
       <c r="D156" s="1"/>
@@ -17176,7 +20077,7 @@
         <v>500000</v>
       </c>
       <c r="C157">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>5</v>
       </c>
       <c r="D157" s="1"/>
@@ -17204,7 +20105,7 @@
         <v>500000</v>
       </c>
       <c r="C158">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>6</v>
       </c>
       <c r="D158" s="1"/>
@@ -17232,7 +20133,7 @@
         <v>500000</v>
       </c>
       <c r="C159">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>7</v>
       </c>
       <c r="D159" s="1"/>
@@ -17260,7 +20161,7 @@
         <v>500000</v>
       </c>
       <c r="C160">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>8</v>
       </c>
       <c r="D160" s="1"/>
@@ -17288,7 +20189,7 @@
         <v>500000</v>
       </c>
       <c r="C161">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>9</v>
       </c>
       <c r="D161" s="1"/>
@@ -17316,7 +20217,7 @@
         <v>500000</v>
       </c>
       <c r="C162">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>10</v>
       </c>
       <c r="D162" s="1"/>
@@ -17344,7 +20245,7 @@
         <v>500000</v>
       </c>
       <c r="C163">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>11</v>
       </c>
       <c r="D163" s="1"/>
@@ -17372,7 +20273,7 @@
         <v>500000</v>
       </c>
       <c r="C164">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>12</v>
       </c>
       <c r="D164" s="1"/>
@@ -17400,7 +20301,7 @@
         <v>500000</v>
       </c>
       <c r="C165">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>13</v>
       </c>
       <c r="D165" s="1"/>
@@ -17428,7 +20329,7 @@
         <v>500000</v>
       </c>
       <c r="C166">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>14</v>
       </c>
       <c r="D166" s="1"/>
@@ -17456,7 +20357,7 @@
         <v>500000</v>
       </c>
       <c r="C167">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>15</v>
       </c>
       <c r="D167" s="1"/>
@@ -17484,7 +20385,7 @@
         <v>500000</v>
       </c>
       <c r="C168">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>16</v>
       </c>
       <c r="D168" s="1"/>
@@ -17512,7 +20413,7 @@
         <v>500000</v>
       </c>
       <c r="C169">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>17</v>
       </c>
       <c r="D169" s="1"/>
@@ -17540,7 +20441,7 @@
         <v>500000</v>
       </c>
       <c r="C170">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>18</v>
       </c>
       <c r="D170" s="1"/>
@@ -17568,7 +20469,7 @@
         <v>500000</v>
       </c>
       <c r="C171">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>19</v>
       </c>
       <c r="D171" s="1"/>
@@ -17596,7 +20497,7 @@
         <v>500000</v>
       </c>
       <c r="C172">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>20</v>
       </c>
       <c r="D172" s="1"/>
@@ -17624,7 +20525,7 @@
         <v>500000</v>
       </c>
       <c r="C173">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>21</v>
       </c>
       <c r="D173" s="1"/>
@@ -17652,7 +20553,7 @@
         <v>500000</v>
       </c>
       <c r="C174">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>22</v>
       </c>
       <c r="D174" s="1"/>
@@ -17680,7 +20581,7 @@
         <v>500000</v>
       </c>
       <c r="C175">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>23</v>
       </c>
       <c r="D175" s="1"/>
@@ -17708,7 +20609,7 @@
         <v>500000</v>
       </c>
       <c r="C176">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>24</v>
       </c>
       <c r="D176" s="1"/>
@@ -17736,7 +20637,7 @@
         <v>500000</v>
       </c>
       <c r="C177">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>25</v>
       </c>
       <c r="D177" s="1"/>
@@ -17764,7 +20665,7 @@
         <v>500000</v>
       </c>
       <c r="C178">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>26</v>
       </c>
       <c r="D178" s="1"/>
@@ -17792,7 +20693,7 @@
         <v>500000</v>
       </c>
       <c r="C179">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>27</v>
       </c>
       <c r="D179" s="1"/>
@@ -17820,7 +20721,7 @@
         <v>500000</v>
       </c>
       <c r="C180">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>28</v>
       </c>
       <c r="D180" s="1"/>
@@ -17848,7 +20749,7 @@
         <v>500000</v>
       </c>
       <c r="C181">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>29</v>
       </c>
       <c r="D181" s="1"/>

--- a/result.xlsx
+++ b/result.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Poly\session8\algo\lab1\algo_tp1_h19\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF67855C-05DE-4EB9-AEBA-160DDBC5A9C7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4A09BD4-E4BF-4DED-9D10-BC65C7C94C1B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="5640" activeTab="4" xr2:uid="{E67B8FEB-57DD-4A9A-B231-4B50BD2449DC}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="5640" activeTab="3" xr2:uid="{E67B8FEB-57DD-4A9A-B231-4B50BD2449DC}"/>
   </bookViews>
   <sheets>
     <sheet name="counting" sheetId="4" r:id="rId1"/>
@@ -82,7 +82,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1109" uniqueCount="375">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1122" uniqueCount="378">
   <si>
     <t>nom fichier</t>
   </si>
@@ -1207,6 +1207,15 @@
   </si>
   <si>
     <t>nlogn</t>
+  </si>
+  <si>
+    <t>0 . 9</t>
+  </si>
+  <si>
+    <t>10 . 19</t>
+  </si>
+  <si>
+    <t>20 . 29</t>
   </si>
 </sst>
 </file>
@@ -1222,7 +1231,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1241,8 +1250,14 @@
         <bgColor theme="9" tint="0.79998168889431442"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -1263,16 +1278,149 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1307,6 +1455,1649 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="fr-FR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>QRS 0-9</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>quickRandomSeuil!$I$3:$I$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>3000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>18494.850021680093</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>40000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>234948.50021680092</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>500000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2849485.0021680095</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>quickRandomSeuil!$E$3:$E$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>16.100000000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>168.4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-8AC9-44AE-B28B-6A651824C959}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="907251760"/>
+        <c:axId val="907252088"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="907251760"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="fr-FR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="907252088"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="907252088"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="fr-FR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="907251760"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="fr-FR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1800" b="0" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>Test des constantes quickSeuil</a:t>
+            </a:r>
+            <a:endParaRPr lang="fr-CA">
+              <a:effectLst/>
+            </a:endParaRPr>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="fr-FR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$I$57:$I$62</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>3000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>18494.850021680093</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>40000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>234948.50021680092</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>500000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2849485.0021680095</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$N$2:$N$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>2.5333333333333332</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.903225806451613</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>18.033333333333335</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>35.233333333333334</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>189.4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-6680-4967-95EE-824873522F56}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="886859376"/>
+        <c:axId val="886859048"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="886859376"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="fr-FR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="886859048"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="886859048"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="fr-FR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="886859376"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="fr-FR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="fr-FR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Test des constantes QuickRandomSeuill</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$I$57:$I$62</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>3000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>18494.850021680093</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>40000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>234948.50021680092</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>500000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2849485.0021680095</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$O$2:$O$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>2.4666666666666668</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.967741935483871</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.4333333333333336</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>18.600000000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>36.4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>196.56666666666666</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-8043-41FC-8DA8-1BA7E55201F8}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="827788328"/>
+        <c:axId val="827785704"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="827788328"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="fr-FR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="827785704"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="827785704"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="fr-FR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="827788328"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="fr-FR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="fr-FR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>QRS 10-19</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>quickRandomSeuil!$I$3:$I$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>3000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>18494.850021680093</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>40000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>234948.50021680092</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>500000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2849485.0021680095</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>quickRandomSeuil!$F$3:$F$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>15.3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>34.4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>181.6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-BE6F-49BE-A6A9-43C9269433AF}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="906773552"/>
+        <c:axId val="906776832"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="906773552"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="fr-FR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="906776832"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="906776832"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="fr-FR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="906773552"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="fr-FR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="fr-FR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>QRS 20-29</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>quickRandomSeuil!$I$3:$I$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>3000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>18494.850021680093</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>40000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>234948.50021680092</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>500000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2849485.0021680095</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>quickRandomSeuil!$G$3:$G$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>2.9</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.0999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>24.4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>46.8</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>239.7</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-2DDE-4088-8A5A-F7E3A938170E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="907253400"/>
+        <c:axId val="907253728"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="907253400"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="fr-FR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="907253728"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="907253728"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="fr-FR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="907253400"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="fr-FR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -1634,7 +3425,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -1977,7 +3768,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -2320,7 +4111,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -2663,7 +4454,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -3256,7 +5047,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -3633,666 +5424,87 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US" sz="1800" b="0" i="0" baseline="0">
-                <a:effectLst/>
-              </a:rPr>
-              <a:t>Test des constantes quickSeuil</a:t>
-            </a:r>
-            <a:endParaRPr lang="fr-CA">
-              <a:effectLst/>
-            </a:endParaRPr>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="fr-FR"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>Sheet1!$I$57:$I$62</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>3000</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>18494.850021680093</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>40000</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>234948.50021680092</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>500000</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2849485.0021680095</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Sheet1!$N$2:$N$7</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>2.5333333333333332</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>3.903225806451613</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>5.2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>18.033333333333335</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>35.233333333333334</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>189.4</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-6680-4967-95EE-824873522F56}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:axId val="886859376"/>
-        <c:axId val="886859048"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="886859376"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="fr-FR"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="886859048"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="886859048"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="fr-FR"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="886859376"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="fr-FR"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
 </file>
 
-<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="fr-FR"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:v>Test des constantes QuickRandomSeuill</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>Sheet1!$I$57:$I$62</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>3000</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>18494.850021680093</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>40000</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>234948.50021680092</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>500000</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2849485.0021680095</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Sheet1!$O$2:$O$7</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>2.4666666666666668</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>3.967741935483871</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>5.4333333333333336</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>18.600000000000001</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>36.4</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>196.56666666666666</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-8043-41FC-8DA8-1BA7E55201F8}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:axId val="827788328"/>
-        <c:axId val="827785704"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="827788328"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="fr-FR"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="827785704"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="827785704"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="fr-FR"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="827788328"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="fr-FR"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
+<file path=xl/charts/colors10.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
 </file>
 
-<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/colors11.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -4612,6 +5824,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors9.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
@@ -5128,7 +6380,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style10.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -5644,7 +6896,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style11.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -6160,7 +7412,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -6676,7 +7928,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -7192,7 +8444,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -7708,7 +8960,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -8224,7 +9476,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -8740,7 +9992,1668 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style9.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>243840</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>83820</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>411480</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8213751E-1125-4E65-B756-11D0BAD1CF38}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>388620</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>121920</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>548640</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{87616294-23AD-4C15-8CAD-CBF04D576B4C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>449580</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>121920</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>160020</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE885C0A-9F2D-4631-9501-C4D1AF9A1B8A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -9448,10 +12361,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{29FA0BFF-4C38-4B98-8FF1-08702D5AF35E}">
-  <dimension ref="A1:B181"/>
+  <dimension ref="A1:G181"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:B1048576"/>
+      <selection activeCell="D2" sqref="D2:G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -9460,7 +12373,7 @@
     <col min="2" max="2" width="10.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>190</v>
       </c>
@@ -9468,63 +12381,162 @@
         <v>191</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>252</v>
       </c>
       <c r="B2">
         <v>2</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="E2" s="10" t="s">
+        <v>375</v>
+      </c>
+      <c r="F2" s="12" t="s">
+        <v>376</v>
+      </c>
+      <c r="G2" s="13" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>263</v>
       </c>
       <c r="B3">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="D3" s="20">
+        <v>1000</v>
+      </c>
+      <c r="E3" s="14">
+        <f>AVERAGE(B14,B2:B3,B25:B31)</f>
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="F3" s="15">
+        <f>AVERAGE(B4:B13)</f>
+        <v>2619.6999999999998</v>
+      </c>
+      <c r="G3" s="16">
+        <f>AVERAGE(B15:B24)</f>
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>253</v>
       </c>
       <c r="B4">
         <v>2596</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="D4" s="7">
+        <v>5000</v>
+      </c>
+      <c r="E4" s="8">
+        <f>AVERAGE(B115:B121,B104,B92:B93)</f>
+        <v>2.1</v>
+      </c>
+      <c r="F4" s="5">
+        <f>AVERAGE(B94:B103)</f>
+        <v>13426.7</v>
+      </c>
+      <c r="G4" s="9">
+        <f>AVERAGE(B105:B114)</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>254</v>
       </c>
       <c r="B5">
         <v>2569</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="D5" s="7">
+        <v>10000</v>
+      </c>
+      <c r="E5" s="17">
+        <f>AVERAGE(B32:B33,B44,B55:B61)</f>
+        <v>3.7</v>
+      </c>
+      <c r="F5" s="18">
+        <f>AVERAGE(B34:B43)</f>
+        <v>0</v>
+      </c>
+      <c r="G5" s="19">
+        <f>AVERAGE(B45:B54)</f>
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>255</v>
       </c>
       <c r="B6">
         <v>2535</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="D6" s="7">
+        <v>50000</v>
+      </c>
+      <c r="E6" s="8">
+        <f>AVERAGE(B122:B123,B134,B145:B151)</f>
+        <v>8.5</v>
+      </c>
+      <c r="F6" s="5">
+        <f>AVERAGE(B124:B133)</f>
+        <v>0</v>
+      </c>
+      <c r="G6" s="9">
+        <f>AVERAGE(B135:B144)</f>
+        <v>10.7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>256</v>
       </c>
       <c r="B7">
         <v>2615</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="D7" s="7">
+        <v>100000</v>
+      </c>
+      <c r="E7" s="17">
+        <f>AVERAGE(B62:B63,B74,B85:B91)</f>
+        <v>12.4</v>
+      </c>
+      <c r="F7" s="18">
+        <f>AVERAGE(B64:B73)</f>
+        <v>0</v>
+      </c>
+      <c r="G7" s="19">
+        <f>AVERAGE(B75:B84)</f>
+        <v>22.6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>257</v>
       </c>
       <c r="B8">
         <v>2754</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="D8" s="7">
+        <v>500000</v>
+      </c>
+      <c r="E8" s="10">
+        <f>AVERAGE(B152:B153,B164,B175:B181)</f>
+        <v>57.4</v>
+      </c>
+      <c r="F8" s="6">
+        <f>AVERAGE(B154:B163)</f>
+        <v>0</v>
+      </c>
+      <c r="G8" s="11">
+        <f>AVERAGE(B165:B174)</f>
+        <v>80.8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>258</v>
       </c>
@@ -9532,7 +12544,7 @@
         <v>2777</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>259</v>
       </c>
@@ -9540,7 +12552,7 @@
         <v>2676</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
         <v>260</v>
       </c>
@@ -9548,7 +12560,7 @@
         <v>2545</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
         <v>261</v>
       </c>
@@ -9556,7 +12568,7 @@
         <v>2552</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
         <v>262</v>
       </c>
@@ -9564,7 +12576,7 @@
         <v>2578</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
         <v>274</v>
       </c>
@@ -9572,7 +12584,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
         <v>264</v>
       </c>
@@ -9580,7 +12592,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
         <v>265</v>
       </c>
@@ -10910,18 +13922,19 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5B02528-2459-43AA-9BB5-813BB930DC79}">
-  <dimension ref="A1:B181"/>
+  <dimension ref="A1:G181"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B181" sqref="B2:B181"/>
+      <selection activeCell="D2" sqref="D2:G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -10930,7 +13943,7 @@
     <col min="2" max="2" width="10.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>190</v>
       </c>
@@ -10938,63 +13951,162 @@
         <v>191</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>252</v>
       </c>
       <c r="B2">
         <v>2</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="E2" s="13" t="s">
+        <v>375</v>
+      </c>
+      <c r="F2" s="12" t="s">
+        <v>376</v>
+      </c>
+      <c r="G2" s="13" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>263</v>
       </c>
       <c r="B3">
         <v>3</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="D3" s="20">
+        <v>1000</v>
+      </c>
+      <c r="E3" s="14">
+        <f>AVERAGE(B14,B2:B3,B25:B31)</f>
+        <v>3</v>
+      </c>
+      <c r="F3" s="15">
+        <f>AVERAGE(B4:B13)</f>
+        <v>2.5</v>
+      </c>
+      <c r="G3" s="16">
+        <f>AVERAGE(B15:B24)</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>253</v>
       </c>
       <c r="B4">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="D4" s="20">
+        <v>5000</v>
+      </c>
+      <c r="E4" s="8">
+        <f>AVERAGE(B115:B121,B104,B92:B93)</f>
+        <v>3.2</v>
+      </c>
+      <c r="F4" s="5">
+        <f>AVERAGE(B94:B103)</f>
+        <v>2.8</v>
+      </c>
+      <c r="G4" s="9">
+        <f>AVERAGE(B105:B114)</f>
+        <v>3.6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>254</v>
       </c>
       <c r="B5">
         <v>3</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="D5" s="20">
+        <v>10000</v>
+      </c>
+      <c r="E5" s="17">
+        <f>AVERAGE(B32:B33,B44,B55:B61)</f>
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="F5" s="18">
+        <f>AVERAGE(B34:B43)</f>
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="G5" s="19">
+        <f>AVERAGE(B45:B54)</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>255</v>
       </c>
       <c r="B6">
         <v>3</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="D6" s="11">
+        <v>50000</v>
+      </c>
+      <c r="E6" s="8">
+        <f>AVERAGE(B122:B123,B134,B145:B151)</f>
+        <v>15.4</v>
+      </c>
+      <c r="F6" s="5">
+        <f>AVERAGE(B124:B133)</f>
+        <v>14.4</v>
+      </c>
+      <c r="G6" s="9">
+        <f>AVERAGE(B135:B144)</f>
+        <v>22.1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>256</v>
       </c>
       <c r="B7">
         <v>2</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="D7" s="20">
+        <v>100000</v>
+      </c>
+      <c r="E7" s="17">
+        <f>AVERAGE(B62:B63,B74,B85:B91)</f>
+        <v>27.6</v>
+      </c>
+      <c r="F7" s="18">
+        <f>AVERAGE(B64:B73)</f>
+        <v>28</v>
+      </c>
+      <c r="G7" s="19">
+        <f>AVERAGE(B75:B84)</f>
+        <v>46.6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>257</v>
       </c>
       <c r="B8">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="D8" s="20">
+        <v>500000</v>
+      </c>
+      <c r="E8" s="10">
+        <f>AVERAGE(B152:B153,B164,B175:B181)</f>
+        <v>170.9</v>
+      </c>
+      <c r="F8" s="6">
+        <f>AVERAGE(B154:B163)</f>
+        <v>161.30000000000001</v>
+      </c>
+      <c r="G8" s="11">
+        <f>AVERAGE(B165:B174)</f>
+        <v>239.2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>258</v>
       </c>
@@ -11002,7 +14114,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>259</v>
       </c>
@@ -11010,7 +14122,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
         <v>260</v>
       </c>
@@ -11018,7 +14130,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
         <v>261</v>
       </c>
@@ -11026,7 +14138,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
         <v>262</v>
       </c>
@@ -11034,7 +14146,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
         <v>274</v>
       </c>
@@ -11042,7 +14154,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
         <v>264</v>
       </c>
@@ -11050,7 +14162,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
         <v>265</v>
       </c>
@@ -12388,10 +15500,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{69B049F3-25A6-4316-B38D-1C0658ABA406}">
-  <dimension ref="A1:B181"/>
+  <dimension ref="A1:G181"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B181" sqref="B2:B181"/>
+      <selection activeCell="D2" sqref="D2:G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -12400,7 +15512,7 @@
     <col min="2" max="2" width="10.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>190</v>
       </c>
@@ -12408,63 +15520,162 @@
         <v>191</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>252</v>
       </c>
       <c r="B2">
         <v>2</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="E2" s="13" t="s">
+        <v>375</v>
+      </c>
+      <c r="F2" s="12" t="s">
+        <v>376</v>
+      </c>
+      <c r="G2" s="13" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>263</v>
       </c>
       <c r="B3">
         <v>3</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="D3" s="20">
+        <v>1000</v>
+      </c>
+      <c r="E3" s="14">
+        <f>AVERAGE(B14,B2:B3,B25:B31)</f>
+        <v>2.5</v>
+      </c>
+      <c r="F3" s="15">
+        <f>AVERAGE(B4:B13)</f>
+        <v>2.1</v>
+      </c>
+      <c r="G3" s="16">
+        <f>AVERAGE(B15:B24)</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>253</v>
       </c>
       <c r="B4">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="D4" s="20">
+        <v>5000</v>
+      </c>
+      <c r="E4" s="8">
+        <f>AVERAGE(B115:B121,B104,B92:B93)</f>
+        <v>3.1</v>
+      </c>
+      <c r="F4" s="5">
+        <f>AVERAGE(B94:B103)</f>
+        <v>3.3</v>
+      </c>
+      <c r="G4" s="9">
+        <f>AVERAGE(B105:B114)</f>
+        <v>3.7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>254</v>
       </c>
       <c r="B5">
         <v>2</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="D5" s="20">
+        <v>10000</v>
+      </c>
+      <c r="E5" s="17">
+        <f>AVERAGE(B32:B33,B44,B55:B61)</f>
+        <v>4.3</v>
+      </c>
+      <c r="F5" s="18">
+        <f>AVERAGE(B34:B43)</f>
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="G5" s="19">
+        <f>AVERAGE(B45:B54)</f>
+        <v>6.7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>255</v>
       </c>
       <c r="B6">
         <v>2</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="D6" s="20">
+        <v>50000</v>
+      </c>
+      <c r="E6" s="8">
+        <f>AVERAGE(B122:B123,B134,B145:B151)</f>
+        <v>16.7</v>
+      </c>
+      <c r="F6" s="5">
+        <f>AVERAGE(B124:B133)</f>
+        <v>14.6</v>
+      </c>
+      <c r="G6" s="9">
+        <f>AVERAGE(B135:B144)</f>
+        <v>22.8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>256</v>
       </c>
       <c r="B7">
         <v>2</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="D7" s="20">
+        <v>100000</v>
+      </c>
+      <c r="E7" s="17">
+        <f>AVERAGE(B62:B63,B74,B85:B91)</f>
+        <v>26.7</v>
+      </c>
+      <c r="F7" s="18">
+        <f>AVERAGE(B64:B73)</f>
+        <v>32.9</v>
+      </c>
+      <c r="G7" s="19">
+        <f>AVERAGE(B75:B84)</f>
+        <v>46.1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>257</v>
       </c>
       <c r="B8">
         <v>2</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="D8" s="20">
+        <v>500000</v>
+      </c>
+      <c r="E8" s="10">
+        <f>AVERAGE(B152:B153,B164,B175:B181)</f>
+        <v>164.5</v>
+      </c>
+      <c r="F8" s="6">
+        <f>AVERAGE(B154:B163)</f>
+        <v>169.8</v>
+      </c>
+      <c r="G8" s="11">
+        <f>AVERAGE(B165:B174)</f>
+        <v>233.9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>258</v>
       </c>
@@ -12472,7 +15683,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>259</v>
       </c>
@@ -12480,7 +15691,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
         <v>260</v>
       </c>
@@ -12488,7 +15699,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
         <v>261</v>
       </c>
@@ -12496,7 +15707,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
         <v>262</v>
       </c>
@@ -12504,7 +15715,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
         <v>274</v>
       </c>
@@ -12512,7 +15723,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
         <v>264</v>
       </c>
@@ -12520,7 +15731,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
         <v>265</v>
       </c>
@@ -13858,10 +17069,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D8D17DBF-9828-416D-9BB5-EE12866473C7}">
-  <dimension ref="A1:B181"/>
+  <dimension ref="A1:I181"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B181" sqref="B2:B181"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I2" sqref="I2:I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -13870,7 +17081,7 @@
     <col min="2" max="2" width="10.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>190</v>
       </c>
@@ -13878,63 +17089,189 @@
         <v>191</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>252</v>
       </c>
       <c r="B2">
         <v>2</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="E2" s="13" t="s">
+        <v>375</v>
+      </c>
+      <c r="F2" s="12" t="s">
+        <v>376</v>
+      </c>
+      <c r="G2" s="13" t="s">
+        <v>377</v>
+      </c>
+      <c r="I2" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>263</v>
       </c>
       <c r="B3">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="D3" s="20">
+        <v>1000</v>
+      </c>
+      <c r="E3" s="14">
+        <f>AVERAGE(B14,B2:B3,B25:B31)</f>
+        <v>2.5</v>
+      </c>
+      <c r="F3" s="15">
+        <f>AVERAGE(B4:B13)</f>
+        <v>2</v>
+      </c>
+      <c r="G3" s="16">
+        <f>AVERAGE(B15:B24)</f>
+        <v>2.9</v>
+      </c>
+      <c r="I3">
+        <f>D3*LOG(D3)</f>
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>253</v>
       </c>
       <c r="B4">
         <v>2</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="D4" s="20">
+        <v>5000</v>
+      </c>
+      <c r="E4" s="8">
+        <f>AVERAGE(B115:B121,B104,B92:B93)</f>
+        <v>3.2</v>
+      </c>
+      <c r="F4" s="5">
+        <f>AVERAGE(B94:B103)</f>
+        <v>3.4</v>
+      </c>
+      <c r="G4" s="9">
+        <f>AVERAGE(B105:B114)</f>
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="I4">
+        <f t="shared" ref="I4:I8" si="0">D4*LOG(D4)</f>
+        <v>18494.850021680093</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>254</v>
       </c>
       <c r="B5">
         <v>2</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="D5" s="20">
+        <v>10000</v>
+      </c>
+      <c r="E5" s="17">
+        <f>AVERAGE(B32:B33,B44,B55:B61)</f>
+        <v>4.8</v>
+      </c>
+      <c r="F5" s="18">
+        <f>AVERAGE(B34:B43)</f>
+        <v>5</v>
+      </c>
+      <c r="G5" s="19">
+        <f>AVERAGE(B45:B54)</f>
+        <v>6.5</v>
+      </c>
+      <c r="I5">
+        <f t="shared" si="0"/>
+        <v>40000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>255</v>
       </c>
       <c r="B6">
         <v>2</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="D6" s="20">
+        <v>50000</v>
+      </c>
+      <c r="E6" s="8">
+        <f>AVERAGE(B122:B123,B134,B145:B151)</f>
+        <v>16.100000000000001</v>
+      </c>
+      <c r="F6" s="5">
+        <f>AVERAGE(B124:B133)</f>
+        <v>15.3</v>
+      </c>
+      <c r="G6" s="9">
+        <f>AVERAGE(B135:B144)</f>
+        <v>24.4</v>
+      </c>
+      <c r="I6">
+        <f t="shared" si="0"/>
+        <v>234948.50021680092</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>256</v>
       </c>
       <c r="B7">
         <v>2</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="D7" s="20">
+        <v>100000</v>
+      </c>
+      <c r="E7" s="17">
+        <f>AVERAGE(B62:B63,B74,B85:B91)</f>
+        <v>28</v>
+      </c>
+      <c r="F7" s="18">
+        <f>AVERAGE(B64:B73)</f>
+        <v>34.4</v>
+      </c>
+      <c r="G7" s="19">
+        <f>AVERAGE(B75:B84)</f>
+        <v>46.8</v>
+      </c>
+      <c r="I7">
+        <f t="shared" si="0"/>
+        <v>500000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>257</v>
       </c>
       <c r="B8">
         <v>2</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="D8" s="20">
+        <v>500000</v>
+      </c>
+      <c r="E8" s="10">
+        <f>AVERAGE(B152:B153,B164,B175:B181)</f>
+        <v>168.4</v>
+      </c>
+      <c r="F8" s="6">
+        <f>AVERAGE(B154:B163)</f>
+        <v>181.6</v>
+      </c>
+      <c r="G8" s="11">
+        <f>AVERAGE(B165:B174)</f>
+        <v>239.7</v>
+      </c>
+      <c r="I8">
+        <f t="shared" si="0"/>
+        <v>2849485.0021680095</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>258</v>
       </c>
@@ -13942,7 +17279,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>259</v>
       </c>
@@ -13950,7 +17287,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
         <v>260</v>
       </c>
@@ -13958,7 +17295,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
         <v>261</v>
       </c>
@@ -13966,7 +17303,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
         <v>262</v>
       </c>
@@ -13974,7 +17311,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
         <v>274</v>
       </c>
@@ -13982,7 +17319,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
         <v>264</v>
       </c>
@@ -13990,7 +17327,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
         <v>265</v>
       </c>
@@ -15320,8 +18657,9 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>
@@ -15330,7 +18668,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01E4C34C-C585-40ED-85BC-0862F2E3BA76}">
   <dimension ref="A1:U181"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D5" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="I31" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="H69" sqref="H69"/>
     </sheetView>
   </sheetViews>
